--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/vp-immunization-recommendation</t>
+    <t>https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-immunization-recommendation</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T23:45:11+00:00</t>
+    <t>2022-07-09T00:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -594,7 +594,7 @@
     <t>fulfillingImmunization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/vp-fulfilling-immunization}
+    <t xml:space="preserve">Extension {https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-fulfilling-immunization}
 </t>
   </si>
   <si>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T00:02:53+00:00</t>
+    <t>2022-07-09T21:18:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$36</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T21:18:08+00:00</t>
+    <t>2022-07-10T14:07:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1019,6 +1022,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1356,7 +1374,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>9</v>
       </c>
@@ -1465,7 +1483,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>82</v>
       </c>
@@ -1576,7 +1594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>90</v>
       </c>
@@ -1685,7 +1703,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>96</v>
       </c>
@@ -1796,7 +1814,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>102</v>
       </c>
@@ -1907,7 +1925,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>111</v>
       </c>
@@ -2018,7 +2036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>119</v>
       </c>
@@ -2129,7 +2147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>127</v>
       </c>
@@ -2240,7 +2258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>135</v>
       </c>
@@ -2353,7 +2371,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>140</v>
       </c>
@@ -2462,7 +2480,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>147</v>
       </c>
@@ -2571,7 +2589,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>155</v>
       </c>
@@ -2680,7 +2698,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>162</v>
       </c>
@@ -2789,7 +2807,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>168</v>
       </c>
@@ -2898,7 +2916,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>174</v>
       </c>
@@ -3007,7 +3025,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>179</v>
       </c>
@@ -3132,7 +3150,7 @@
         <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -3225,7 +3243,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>189</v>
       </c>
@@ -3354,7 +3372,7 @@
         <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -3461,7 +3479,7 @@
         <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
@@ -3552,7 +3570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>207</v>
       </c>
@@ -3661,7 +3679,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>213</v>
       </c>
@@ -3770,7 +3788,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>220</v>
       </c>
@@ -3895,7 +3913,7 @@
         <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -3988,7 +4006,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>232</v>
       </c>
@@ -4097,7 +4115,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>233</v>
       </c>
@@ -4208,7 +4226,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>235</v>
       </c>
@@ -4321,7 +4339,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>236</v>
       </c>
@@ -4430,7 +4448,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>243</v>
       </c>
@@ -4539,7 +4557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>248</v>
       </c>
@@ -4648,7 +4666,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>253</v>
       </c>
@@ -4757,7 +4775,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>258</v>
       </c>
@@ -4868,7 +4886,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>265</v>
       </c>
@@ -4979,7 +4997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>270</v>
       </c>
@@ -5088,7 +5106,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>276</v>
       </c>
@@ -5198,6 +5216,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM36">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI35">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T14:07:54+00:00</t>
+    <t>2022-07-10T14:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T14:44:59+00:00</t>
+    <t>2022-07-10T16:04:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T16:04:34+00:00</t>
+    <t>2022-07-13T20:52:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1215,43 +1215,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="75.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.91015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.9140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="58.50390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="58.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="128.92578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.1953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.19921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="73.59765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="73.6015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="152.17578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="118.01953125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="152.1796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="118.0234375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T20:52:23+00:00</t>
+    <t>2022-07-15T14:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T14:52:55+00:00</t>
+    <t>2022-07-17T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T13:46:32+00:00</t>
+    <t>2022-07-17T16:09:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T16:09:40+00:00</t>
+    <t>2022-07-17T16:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T16:31:22+00:00</t>
+    <t>2022-07-17T19:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="387">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T19:03:56+00:00</t>
+    <t>2022-08-04T11:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ImmunizationRecommendation profile for use in FHIR Vaccination Pass</t>
+    <t>ImmunizationRecommendation profile for use in FHIR Vaccination Pass.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -412,33 +412,96 @@
     <t>ImmunizationRecommendation.extension</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>isDeactivated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-immunization-recommendation-is-deactivated}
+</t>
+  </si>
+  <si>
+    <t>VPImmunizationRecommendationIsDeactivated</t>
+  </si>
+  <si>
+    <t>Indicates if this ImmunizationRecommendation has been deactivated by a medical doctor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>fulfillingImmunization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-fulfilling-immunization}
+</t>
+  </si>
+  <si>
+    <t>FulfillingImmunization</t>
+  </si>
+  <si>
+    <t>Future Immunization that fulfills this ImmunizationRecommendation.</t>
+  </si>
+  <si>
+    <t>supportingPopulationRecommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-supporting-population-recommendation}
+</t>
+  </si>
+  <si>
+    <t>SupportingPopulationRecommendation</t>
+  </si>
+  <si>
+    <t>PopulationRecommendation that is the reason for generating this ImmunizationRecommendation.</t>
+  </si>
+  <si>
+    <t>recommendedVaccinationDose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-recommended-vaccination-dose}
+</t>
+  </si>
+  <si>
+    <t>VPRecommendedVaccinationDose</t>
+  </si>
+  <si>
+    <t>VaccinationDose that has to be administered to fulfill this ImmunizationRecommendation.</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ImmunizationRecommendation.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -446,6 +509,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -477,7 +543,7 @@
     <t>ImmunizationRecommendation.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-patient)
 </t>
   </si>
   <si>
@@ -578,34 +644,13 @@
     <t>ImmunizationRecommendation.recommendation.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>fulfillingImmunization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-fulfilling-immunization}
-</t>
-  </si>
-  <si>
-    <t>FulfillingImmunization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>ImmunizationRecommendation.recommendation.modifierExtension</t>
@@ -653,6 +698,188 @@
     <t>.partipication[typeCode=CSM].role[classCode=ADMM].code</t>
   </si>
   <si>
+    <t>ImmunizationRecommendation.recommendation.vaccineCode.id</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.vaccineCode.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.vaccineCode.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.vaccineCode.coding.id</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.vaccineCode.coding.extension</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.vaccineCode.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.vaccineCode.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.vaccineCode.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.vaccineCode.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.vaccineCode.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.vaccineCode.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>ImmunizationRecommendation.recommendation.targetDisease</t>
   </si>
   <si>
@@ -665,6 +892,39 @@
     <t>http://hl7.org/fhir/sid/icd-10</t>
   </si>
   <si>
+    <t>ImmunizationRecommendation.recommendation.targetDisease.id</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.targetDisease.extension</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.targetDisease.coding</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.targetDisease.coding.id</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.targetDisease.coding.extension</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.targetDisease.coding.system</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.targetDisease.coding.version</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.targetDisease.coding.code</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.targetDisease.coding.display</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.targetDisease.coding.userSelected</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.targetDisease.text</t>
+  </si>
+  <si>
     <t>ImmunizationRecommendation.recommendation.contraindicatedVaccineCode</t>
   </si>
   <si>
@@ -692,9 +952,6 @@
     <t>Indicates the patient status with respect to the path to immunity for the target disease.</t>
   </si>
   <si>
-    <t>The patient's status with respect to a vaccination protocol.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-recommendation-status</t>
   </si>
   <si>
@@ -704,6 +961,39 @@
     <t>.inboundRelationship[typeCode=SUBJ] .source[classCode=OBS, moodCode=EVN, code="Immunization Forecast Status"].value</t>
   </si>
   <si>
+    <t>ImmunizationRecommendation.recommendation.forecastStatus.id</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.forecastStatus.extension</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.forecastStatus.coding</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.forecastStatus.coding.id</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.forecastStatus.coding.extension</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.forecastStatus.coding.system</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.forecastStatus.coding.version</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.forecastStatus.coding.code</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.forecastStatus.coding.display</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.forecastStatus.coding.userSelected</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.forecastStatus.text</t>
+  </si>
+  <si>
     <t>ImmunizationRecommendation.recommendation.forecastReason</t>
   </si>
   <si>
@@ -746,9 +1036,6 @@
     <t>ImmunizationRecommendation.recommendation.dateCriterion.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>ImmunizationRecommendation.recommendation.dateCriterion.modifierExtension</t>
   </si>
   <si>
@@ -761,9 +1048,6 @@
     <t>Date classification of recommendation.  For example, earliest date to give, latest date to give, etc.</t>
   </si>
   <si>
-    <t>Classifies date criterion with respect to conveying information about a patient's vaccination status (e.g. due date, latest to give date, etc.).</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-recommendation-date-criterion</t>
   </si>
   <si>
@@ -771,6 +1055,39 @@
   </si>
   <si>
     <t>.code</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.dateCriterion.code.id</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.dateCriterion.code.extension</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.dateCriterion.code.coding</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.dateCriterion.code.coding.id</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.dateCriterion.code.coding.extension</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.dateCriterion.code.coding.system</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.dateCriterion.code.coding.version</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.dateCriterion.code.coding.code</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.dateCriterion.code.coding.display</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.dateCriterion.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.dateCriterion.code.text</t>
   </si>
   <si>
     <t>ImmunizationRecommendation.recommendation.dateCriterion.value</t>
@@ -858,7 +1175,7 @@
     <t>ImmunizationRecommendation.recommendation.supportingImmunization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Immunization|ImmunizationEvaluation)
+    <t xml:space="preserve">Reference(https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-immunization)
 </t>
   </si>
   <si>
@@ -1205,7 +1522,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1214,8 +1531,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="75.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.9140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="82.93359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.80859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1237,11 +1554,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="128.92578125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="68.59375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="68.19921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="73.6015625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1483,7 +1800,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>82</v>
       </c>
@@ -1499,7 +1816,7 @@
         <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -2153,11 +2470,11 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>75</v>
@@ -2180,9 +2497,7 @@
       <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>73</v>
@@ -2219,19 +2534,17 @@
         <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2243,7 +2556,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2252,51 +2565,49 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>73</v>
       </c>
@@ -2344,7 +2655,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2353,10 +2664,10 @@
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2365,17 +2676,19 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>73</v>
       </c>
@@ -2384,25 +2697,25 @@
         <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2453,7 +2766,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2462,29 +2775,31 @@
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="AM11" t="s" s="2">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
-      <c r="A12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>73</v>
       </c>
@@ -2496,22 +2811,22 @@
         <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2562,38 +2877,40 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>73</v>
       </c>
@@ -2605,22 +2922,22 @@
         <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2671,28 +2988,28 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>73</v>
@@ -2700,39 +3017,43 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>73</v>
       </c>
@@ -2780,28 +3101,28 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>73</v>
@@ -2809,7 +3130,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2817,7 +3138,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>75</v>
@@ -2832,13 +3153,13 @@
         <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2889,10 +3210,10 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -2901,24 +3222,24 @@
         <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2926,28 +3247,28 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2998,10 +3319,10 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>83</v>
@@ -3010,24 +3331,24 @@
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>73</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3035,28 +3356,28 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3095,50 +3416,50 @@
         <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AB17" s="2"/>
-      <c r="AC17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>73</v>
       </c>
@@ -3150,7 +3471,7 @@
         <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -3159,13 +3480,13 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3216,72 +3537,68 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>73</v>
       </c>
@@ -3329,10 +3646,10 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3341,7 +3658,7 @@
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3350,13 +3667,13 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>194</v>
       </c>
@@ -3366,28 +3683,28 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3414,89 +3731,93 @@
         <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="X20" s="2"/>
-      <c r="Y20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>73</v>
@@ -3521,50 +3842,52 @@
         <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>73</v>
@@ -3572,11 +3895,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3589,22 +3912,26 @@
         <v>73</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>73</v>
       </c>
@@ -3628,13 +3955,13 @@
         <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>73</v>
@@ -3664,7 +3991,7 @@
         <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>73</v>
@@ -3673,15 +4000,15 @@
         <v>73</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3695,22 +4022,22 @@
         <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3737,13 +4064,11 @@
         <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>73</v>
@@ -3761,13 +4086,13 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>73</v>
@@ -3776,13 +4101,13 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>73</v>
@@ -3790,7 +4115,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3801,7 +4126,7 @@
         <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>73</v>
@@ -3810,16 +4135,16 @@
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3846,13 +4171,13 @@
         <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>224</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>73</v>
@@ -3870,50 +4195,50 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -3922,15 +4247,17 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>73</v>
@@ -3967,19 +4294,19 @@
         <v>73</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -3991,24 +4318,24 @@
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4016,31 +4343,35 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>73</v>
       </c>
@@ -4088,28 +4419,28 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>73</v>
@@ -4117,18 +4448,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
@@ -4140,17 +4471,15 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>73</v>
@@ -4199,19 +4528,19 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -4220,7 +4549,7 @@
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>73</v>
@@ -4228,11 +4557,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4245,26 +4574,24 @@
         <v>73</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4300,19 +4627,19 @@
         <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4324,7 +4651,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -4333,15 +4660,15 @@
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4355,25 +4682,29 @@
         <v>83</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>73</v>
       </c>
@@ -4397,13 +4728,13 @@
         <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>73</v>
@@ -4424,7 +4755,7 @@
         <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>83</v>
@@ -4439,10 +4770,10 @@
         <v>73</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>73</v>
@@ -4450,7 +4781,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4458,7 +4789,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>83</v>
@@ -4470,18 +4801,20 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4533,7 +4866,7 @@
         <v>243</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>83</v>
@@ -4548,18 +4881,18 @@
         <v>73</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4567,31 +4900,33 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>73</v>
       </c>
@@ -4639,7 +4974,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -4688,7 +5023,7 @@
         <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>85</v>
@@ -4700,7 +5035,9 @@
         <v>255</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>73</v>
       </c>
@@ -4748,7 +5085,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4766,10 +5103,10 @@
         <v>73</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>73</v>
@@ -4777,7 +5114,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4800,18 +5137,20 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -4859,7 +5198,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -4877,10 +5216,10 @@
         <v>73</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>73</v>
@@ -4888,7 +5227,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4908,21 +5247,23 @@
         <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
       </c>
@@ -4970,7 +5311,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -4988,18 +5329,18 @@
         <v>73</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5007,28 +5348,28 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5055,13 +5396,11 @@
         <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>73</v>
@@ -5079,13 +5418,13 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
@@ -5097,10 +5436,10 @@
         <v>73</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>73</v>
@@ -5108,7 +5447,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5119,7 +5458,7 @@
         <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
@@ -5131,13 +5470,13 @@
         <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>277</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>196</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5188,35 +5527,5242 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG36" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI36" t="s" s="2">
+      <c r="G47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI47" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AJ47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="X48" s="2"/>
+      <c r="Y48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="X65" s="2"/>
+      <c r="Y65" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM36">
+  <autoFilter ref="A1:AM83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5226,7 +10772,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI35">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:06:48+00:00</t>
+    <t>2022-08-04T13:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T13:09:21+00:00</t>
+    <t>2022-08-04T16:22:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -889,7 +889,7 @@
     <t>The targeted disease for the recommendation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/sid/icd-10</t>
+    <t>https://fhir-vaccination-pass.github.io/fhir-implementation-guide/ValueSet/vp-icd-10-value-set</t>
   </si>
   <si>
     <t>ImmunizationRecommendation.recommendation.targetDisease.id</t>
@@ -1555,7 +1555,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="68.59375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.19921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.21875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T16:22:49+00:00</t>
+    <t>2022-08-04T21:23:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:23:28+00:00</t>
+    <t>2022-08-04T21:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:39:40+00:00</t>
+    <t>2022-08-04T22:05:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:05:52+00:00</t>
+    <t>2022-08-04T22:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:26:29+00:00</t>
+    <t>2022-08-04T22:36:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:36:48+00:00</t>
+    <t>2022-08-04T22:42:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:42:55+00:00</t>
+    <t>2022-08-10T21:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T21:41:07+00:00</t>
+    <t>2022-08-11T05:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T05:51:10+00:00</t>
+    <t>2022-08-11T13:02:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:02:01+00:00</t>
+    <t>2022-08-11T13:55:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -686,7 +686,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://fhir.de/CodeSystem/ifa/pzn</t>
+    <t>http://fhir.de/ValueSet/ifa/pzn</t>
   </si>
   <si>
     <t>Request.code</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:55:21+00:00</t>
+    <t>2022-08-12T19:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T19:53:56+00:00</t>
+    <t>2022-08-13T11:44:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization-recommendation.xlsx
+++ b/StructureDefinition-vp-immunization-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T11:44:57+00:00</t>
+    <t>2022-08-23T12:16:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
